--- a/inst/extdata/steel plant operating rates - backup.xlsx
+++ b/inst/extdata/steel plant operating rates - backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C458AF8-2406-4E04-8860-2AB8DB5CD3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B799E0-9420-44D2-B602-1BA432BB16C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custeel_Operating Rate of Blast" sheetId="1" r:id="rId1"/>
@@ -554,9 +554,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
